--- a/docs/PPG/Coordenação.xlsx
+++ b/docs/PPG/Coordenação.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10514"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA0C3758-63EC-2F4C-B123-86369AD13C76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC6A34A4-248A-2843-82F6-9682F1E40F40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="920" yWindow="500" windowWidth="27880" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Coordenação" sheetId="17" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Coordenação!$A$1:$Z$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Coordenação!$A$1:$P$5</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,29 +36,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="63">
-  <si>
-    <t>Matrícula</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="50">
   <si>
     <t>Nome</t>
   </si>
   <si>
-    <t>FTO1096</t>
-  </si>
-  <si>
     <t>Sara Lucia Silveira de Menezes</t>
   </si>
   <si>
-    <t>FTO1075</t>
-  </si>
-  <si>
     <t>Thiago Lemos de Carvalho</t>
   </si>
   <si>
-    <t>EDF1084</t>
-  </si>
-  <si>
     <t>Arthur de Sá Ferreira</t>
   </si>
   <si>
@@ -86,15 +74,6 @@
     <t>Regime de trabalho</t>
   </si>
   <si>
-    <t>CH PPGCR</t>
-  </si>
-  <si>
-    <t>CH Grad</t>
-  </si>
-  <si>
-    <t>CH total</t>
-  </si>
-  <si>
     <t>Integral</t>
   </si>
   <si>
@@ -140,31 +119,13 @@
     <t>Dedicação</t>
   </si>
   <si>
-    <t>Titulado em:</t>
-  </si>
-  <si>
     <t>Atual</t>
   </si>
   <si>
-    <t>Saída PosDoc</t>
-  </si>
-  <si>
-    <t>Retorno PosDoc</t>
-  </si>
-  <si>
     <t>Brasil</t>
   </si>
   <si>
-    <t>País PosDoc</t>
-  </si>
-  <si>
     <t>E-mail</t>
-  </si>
-  <si>
-    <t>MATR - NOME</t>
-  </si>
-  <si>
-    <t>CH Outro PPG</t>
   </si>
   <si>
     <t>Google Scholar</t>
@@ -277,7 +238,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -328,22 +289,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -353,77 +314,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="3" xr:uid="{8FCBCC1E-E3F2-0641-8037-D691F97178B3}"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -710,10 +601,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{787254B8-2D79-7240-B890-7E7B72FB03AB}">
-  <dimension ref="A1:Z5"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight"/>
@@ -721,447 +612,280 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.83203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.83203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.83203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.83203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.83203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="22" style="7" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="33.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="38.1640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="37.1640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="57.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="42.1640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="76" style="9" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="64.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="10.83203125" style="7"/>
+    <col min="1" max="1" width="35.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="38.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="37.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="57.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="42.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="76" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="64.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:16" s="4" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="B2" s="5">
+        <v>2010</v>
+      </c>
+      <c r="C2" s="5">
+        <v>2017</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="5">
+        <v>2016</v>
+      </c>
+      <c r="C3" s="5">
+        <v>2017</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="N3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5">
+        <v>2018</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="K4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="5">
+        <v>2018</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="K1" s="3" t="s">
+      <c r="K5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="N1" s="3" t="s">
+      <c r="L5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="O1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="V1" s="4" t="s">
+      <c r="N5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="W1" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z1" s="4" t="s">
+      <c r="P5" s="2" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="8" t="str">
-        <f t="shared" ref="C2:C5" si="0">CONCATENATE(A2," - ",B2)</f>
-        <v>FTO1075 - Sara Lucia Silveira de Menezes</v>
-      </c>
-      <c r="D2" s="7">
-        <v>2010</v>
-      </c>
-      <c r="E2" s="7">
-        <v>2017</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="8">
-        <f t="shared" ref="K2" si="1">SUM(L2:N2)</f>
-        <v>40</v>
-      </c>
-      <c r="L2" s="7">
-        <v>40</v>
-      </c>
-      <c r="M2" s="7">
-        <v>0</v>
-      </c>
-      <c r="N2" s="7">
-        <v>0</v>
-      </c>
-      <c r="O2" s="7">
-        <v>2002</v>
-      </c>
-      <c r="P2" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>FTO1096 - Arthur de Sá Ferreira</v>
-      </c>
-      <c r="D3" s="7">
-        <v>2016</v>
-      </c>
-      <c r="E3" s="7">
-        <v>2017</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" s="8">
-        <f t="shared" ref="K3:K5" si="2">SUM(L3:N3)</f>
-        <v>40</v>
-      </c>
-      <c r="L3" s="7">
-        <v>30</v>
-      </c>
-      <c r="M3" s="7">
-        <v>0</v>
-      </c>
-      <c r="N3" s="7">
-        <v>10</v>
-      </c>
-      <c r="O3" s="7">
-        <v>2006</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>FTO1096 - Arthur de Sá Ferreira</v>
-      </c>
-      <c r="D4" s="7">
-        <v>2018</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" s="8">
-        <f t="shared" ref="K4" si="3">SUM(L4:N4)</f>
-        <v>40</v>
-      </c>
-      <c r="L4" s="7">
-        <v>30</v>
-      </c>
-      <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7">
-        <v>10</v>
-      </c>
-      <c r="O4" s="7">
-        <v>2006</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="V4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z4" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>EDF1084 - Thiago Lemos de Carvalho</v>
-      </c>
-      <c r="D5" s="7">
-        <v>2018</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" s="8">
-        <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="L5" s="7">
-        <v>30</v>
-      </c>
-      <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7">
-        <v>0</v>
-      </c>
-      <c r="O5" s="7">
-        <v>2012</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="U5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="V5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="X5" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z5" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Z5" xr:uid="{FD63F2AB-B93E-AD4C-AA13-E8939F936B41}"/>
-  <conditionalFormatting sqref="E1:S3 E6:S1048576">
-    <cfRule type="containsText" dxfId="7" priority="29" operator="containsText" text="Atual">
-      <formula>NOT(ISERROR(SEARCH("Atual",E1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K3 K6:K1048576">
-    <cfRule type="cellIs" dxfId="6" priority="20" operator="greaterThan">
-      <formula>40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:S2">
-    <cfRule type="containsText" dxfId="5" priority="8" operator="containsText" text="Atual">
-      <formula>NOT(ISERROR(SEARCH("Atual",E2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2">
-    <cfRule type="cellIs" dxfId="4" priority="7" operator="greaterThan">
-      <formula>40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4:S4">
-    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="Atual">
-      <formula>NOT(ISERROR(SEARCH("Atual",E4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K4">
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="greaterThan">
-      <formula>40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E5:S5">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Atual">
-      <formula>NOT(ISERROR(SEARCH("Atual",E5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K5">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
-      <formula>40</formula>
+  <autoFilter ref="A1:P5" xr:uid="{FD63F2AB-B93E-AD4C-AA13-E8939F936B41}"/>
+  <conditionalFormatting sqref="C1:I1048576">
+    <cfRule type="containsText" dxfId="0" priority="29" operator="containsText" text="Atual">
+      <formula>NOT(ISERROR(SEARCH("Atual",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/PPG/Coordenação.xlsx
+++ b/docs/PPG/Coordenação.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC6A34A4-248A-2843-82F6-9682F1E40F40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB2F026D-2CE7-714C-9B33-AC758DB45D23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="920" yWindow="500" windowWidth="27880" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Coordenação" sheetId="17" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Coordenação!$A$1:$P$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Coordenação!$A$1:$E$5</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,15 +28,12 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>Nome</t>
   </si>
@@ -50,142 +47,31 @@
     <t>Arthur de Sá Ferreira</t>
   </si>
   <si>
-    <t>ORCID</t>
-  </si>
-  <si>
-    <t>Research Gate</t>
-  </si>
-  <si>
-    <t>https://scholar.google.com.br/citations?user=DSUfBW4AAAAJ&amp;hl=pt-BR</t>
-  </si>
-  <si>
-    <t>https://www.researchgate.net/profile/Arthur_Ferreira</t>
-  </si>
-  <si>
-    <t>https://scholar.google.com.br/citations?user=opKvvscAAAAJ&amp;hl=pt-BR</t>
-  </si>
-  <si>
-    <t>https://www.researchgate.net/profile/Thiago_Lemos</t>
-  </si>
-  <si>
-    <t>Graduação</t>
-  </si>
-  <si>
-    <t>Regime de trabalho</t>
-  </si>
-  <si>
-    <t>Integral</t>
-  </si>
-  <si>
-    <t>Educação física</t>
-  </si>
-  <si>
-    <t>Fisioterapia</t>
-  </si>
-  <si>
-    <t>Exclusiva</t>
-  </si>
-  <si>
-    <t>Lattes</t>
-  </si>
-  <si>
-    <t>http://lattes.cnpq.br/5432142731317894</t>
-  </si>
-  <si>
-    <t>http://lattes.cnpq.br/2047525646037395</t>
-  </si>
-  <si>
-    <t>+1 Programa</t>
-  </si>
-  <si>
     <t>saraposgraduacao@yahoo.com.br</t>
   </si>
   <si>
-    <t>https://scholar.google.com/citations?user=GcZxnIcAAAAJ&amp;hl=pt-BR</t>
-  </si>
-  <si>
-    <t>http://lattes.cnpq.br/1227065353827577</t>
-  </si>
-  <si>
     <t>Credenciamento</t>
   </si>
   <si>
     <t>Descredenciamento</t>
   </si>
   <si>
+    <t>arthurde@souunisuam.com.br</t>
+  </si>
+  <si>
+    <t>thiago.lemos@souunisuam.com.br</t>
+  </si>
+  <si>
+    <t>E-Mail</t>
+  </si>
+  <si>
     <t>Categoria</t>
   </si>
   <si>
-    <t>Dedicação</t>
-  </si>
-  <si>
-    <t>Atual</t>
-  </si>
-  <si>
-    <t>Brasil</t>
-  </si>
-  <si>
-    <t>E-mail</t>
-  </si>
-  <si>
-    <t>Google Scholar</t>
-  </si>
-  <si>
-    <t>arthurde@souunisuam.com.br</t>
-  </si>
-  <si>
-    <t>thiago.lemos@souunisuam.com.br</t>
-  </si>
-  <si>
-    <t>https://orcid.org/0000-0002-4450-7642</t>
-  </si>
-  <si>
-    <t>https://orcid.org/0000-0001-7014-2002</t>
-  </si>
-  <si>
-    <t>https://orcid.org/0000-0002-6657-5689</t>
-  </si>
-  <si>
-    <t>https://www.researchgate.net/profile/Sara-Menezes-4</t>
-  </si>
-  <si>
-    <t>País</t>
-  </si>
-  <si>
-    <t>Bandeira</t>
-  </si>
-  <si>
-    <t>🇧🇷</t>
-  </si>
-  <si>
-    <t>Scopus</t>
-  </si>
-  <si>
-    <t>https://www.scopus.com/authid/detail.uri?authorId=25721966000</t>
-  </si>
-  <si>
-    <t>https://www.scopus.com/authid/detail.uri?authorId=8872259200</t>
-  </si>
-  <si>
-    <t>https://publons.com/researcher/F-6831-2012</t>
-  </si>
-  <si>
-    <t>ResearcherID</t>
-  </si>
-  <si>
-    <t>https://publons.com/researcher/Q-9518-2017</t>
-  </si>
-  <si>
-    <t>Coordenação</t>
-  </si>
-  <si>
-    <t>Coordenação Adjunta</t>
-  </si>
-  <si>
-    <t>https://www.scopus.com/authid/detail.uri?authorId=7006581391</t>
-  </si>
-  <si>
-    <t>https://publons.com/researcher/M-3811-2013</t>
+    <t>Coordenador</t>
+  </si>
+  <si>
+    <t>Adjunto</t>
   </si>
 </sst>
 </file>
@@ -229,21 +115,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -262,15 +142,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -278,33 +149,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -601,291 +466,103 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{787254B8-2D79-7240-B890-7E7B72FB03AB}">
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="38.1640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="37.1640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="57.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="42.1640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="76" style="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="64.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="10.83203125" style="5"/>
+    <col min="1" max="1" width="30.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.1640625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="22.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="4" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:5" s="3" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="7" t="s">
+      <c r="B1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="P1" s="8" t="s">
-        <v>5</v>
+      <c r="D2" s="6">
+        <v>40616</v>
+      </c>
+      <c r="E2" s="6">
+        <v>42360</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5">
-        <v>2010</v>
-      </c>
-      <c r="C2" s="5">
-        <v>2017</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G2" s="5" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>36</v>
+      <c r="D3" s="6">
+        <v>40616</v>
+      </c>
+      <c r="E3" s="6">
+        <v>42360</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="5">
-        <v>2016</v>
-      </c>
-      <c r="C3" s="5">
-        <v>2017</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G3" s="5" t="s">
+      <c r="B4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="6">
+        <v>42387</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5">
-        <v>2018</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="5">
-        <v>2018</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>9</v>
+      <c r="D5" s="6">
+        <v>42387</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P5" xr:uid="{FD63F2AB-B93E-AD4C-AA13-E8939F936B41}"/>
-  <conditionalFormatting sqref="C1:I1048576">
+  <conditionalFormatting sqref="E1:E1048576">
     <cfRule type="containsText" dxfId="0" priority="29" operator="containsText" text="Atual">
-      <formula>NOT(ISERROR(SEARCH("Atual",C1)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Atual",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/PPG/Coordenação.xlsx
+++ b/docs/PPG/Coordenação.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11013"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB2F026D-2CE7-714C-9B33-AC758DB45D23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E13D8C99-F76C-AE47-8ED3-538626863DC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="920" yWindow="500" windowWidth="27880" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="920" yWindow="500" windowWidth="27880" windowHeight="17500" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Coordenação" sheetId="17" r:id="rId1"/>
+    <sheet name="Portarias" sheetId="18" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Coordenação!$A$1:$E$5</definedName>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>Nome</t>
   </si>
@@ -72,13 +73,58 @@
   </si>
   <si>
     <t>Adjunto</t>
+  </si>
+  <si>
+    <t>Abrir</t>
+  </si>
+  <si>
+    <t>Publicação</t>
+  </si>
+  <si>
+    <t>Documento</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1lIXxoHX7iRBNe6JQLhoFocffFxWQn-Zv</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>Portaria Reitoria No. 6 18_01_2016</t>
+  </si>
+  <si>
+    <t>Resolução No. 2_2007 CEPE-UNISUAM.pdf</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/19NSqZkgQSKYAN-tvVF-cjhh3B1goETOH</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>Portaria Reitoria 088 20_12_2019</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/19B2Jki-Bw02OgtkIdfoBX-_EZRK76lxz</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/134iTZXKaCV9MuDGfVWfZ33ypzYrA3WOX</t>
+  </si>
+  <si>
+    <t>Portaria Reitoria 115 07_10_2024.pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -114,6 +160,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -143,13 +205,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -172,8 +235,12 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="4" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
+    <cellStyle name="Hiperlink" xfId="4" builtinId="8"/>
     <cellStyle name="Hiperlink Visitado" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Hiperlink Visitado" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -468,7 +535,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{787254B8-2D79-7240-B890-7E7B72FB03AB}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -567,4 +634,84 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47E87DB0-D599-E644-8C16-3138FFA0183E}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="9"/>
+    <col min="2" max="2" width="41.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="62.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{2421549B-3C9C-7848-B971-37EC7F1E2376}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{C7EB6BE7-1FF9-E34D-9DEC-8BB7493DC0BC}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{AF5FD46A-B43C-2F41-B8CD-8061237D4748}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{7314F5DA-FA1D-3948-A02F-D40C25F0F8E8}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/docs/PPG/Coordenação.xlsx
+++ b/docs/PPG/Coordenação.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10917"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurdesaferreira1/Documents/Google drive (arthur_sf)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E13D8C99-F76C-AE47-8ED3-538626863DC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D285D62-EE65-BD48-857D-6AB2E732750E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="920" yWindow="500" windowWidth="27880" windowHeight="17500" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1020" yWindow="500" windowWidth="27880" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Coordenação" sheetId="17" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t>Nome</t>
   </si>
@@ -118,6 +118,24 @@
   </si>
   <si>
     <t>Portaria Reitoria 115 07_10_2024.pdf</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>Portaria Reitoria No. 193 02_11_2009.pdf</t>
+  </si>
+  <si>
+    <t>Portaria Reitoria No. 196 22_12_2015</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1-Lh39ktFja2PjJfMWOc0VO2vXZaRd1PZ</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1-LiUfjJ3tU2NoUOj9GFaFMt59DkXyKf4</t>
   </si>
 </sst>
 </file>
@@ -212,7 +230,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -224,9 +242,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -535,15 +550,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{787254B8-2D79-7240-B890-7E7B72FB03AB}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="30.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.1640625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="22.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
@@ -568,16 +583,16 @@
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <v>40616</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5">
         <v>42360</v>
       </c>
     </row>
@@ -585,16 +600,16 @@
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <v>40616</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <v>42360</v>
       </c>
     </row>
@@ -602,13 +617,13 @@
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>42387</v>
       </c>
     </row>
@@ -616,13 +631,13 @@
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>42387</v>
       </c>
     </row>
@@ -638,79 +653,103 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47E87DB0-D599-E644-8C16-3138FFA0183E}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="9"/>
-    <col min="2" max="2" width="41.1640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="62.1640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="9"/>
+    <col min="1" max="1" width="10.83203125" style="8"/>
+    <col min="2" max="2" width="41.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="62.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>26</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{2421549B-3C9C-7848-B971-37EC7F1E2376}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{C7EB6BE7-1FF9-E34D-9DEC-8BB7493DC0BC}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{AF5FD46A-B43C-2F41-B8CD-8061237D4748}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{7314F5DA-FA1D-3948-A02F-D40C25F0F8E8}"/>
+    <hyperlink ref="C5" r:id="rId2" xr:uid="{C7EB6BE7-1FF9-E34D-9DEC-8BB7493DC0BC}"/>
+    <hyperlink ref="C6" r:id="rId3" xr:uid="{AF5FD46A-B43C-2F41-B8CD-8061237D4748}"/>
+    <hyperlink ref="C7" r:id="rId4" xr:uid="{7314F5DA-FA1D-3948-A02F-D40C25F0F8E8}"/>
+    <hyperlink ref="C3" r:id="rId5" xr:uid="{25A19326-C543-6547-A5DB-200EAA570286}"/>
+    <hyperlink ref="C4" r:id="rId6" xr:uid="{24834F69-2839-2C47-916E-169D5BCFDC2C}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
